--- a/output/below_50/tRNA-Thr-TGT-1-1.xlsx
+++ b/output/below_50/tRNA-Thr-TGT-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>chr6</t>
   </si>
@@ -183,66 +183,6 @@
   </si>
   <si>
     <t>3.14757E+11</t>
-  </si>
-  <si>
-    <t>28442392</t>
-  </si>
-  <si>
-    <t>28442415</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>28442395</t>
-  </si>
-  <si>
-    <t>CACTGCACATGTAGGCTCTA</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>20% (30)</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 42, Doench 2016: 14%, Moreno-Mateos: 20%</t>
-  </si>
-  <si>
-    <t>3.95814E+11</t>
-  </si>
-  <si>
-    <t>28442808</t>
-  </si>
-  <si>
-    <t>28442831</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>28442828</t>
-  </si>
-  <si>
-    <t>GACAGTCATTTGCACTCAGG</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 9, Doench 2016: 72%, Moreno-Mateos: 94%</t>
-  </si>
-  <si>
-    <t>3.01775E+11</t>
   </si>
 </sst>
 </file>
@@ -287,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -588,124 +528,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
